--- a/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,81</t>
+          <t>1,08; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,78</t>
+          <t>1,14; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,45</t>
+          <t>1,12; 3,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,69</t>
+          <t>6,04; 10,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,36</t>
+          <t>8,22; 15,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,05</t>
+          <t>7,17; 11,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,44</t>
+          <t>4,49; 7,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,49</t>
+          <t>5,85; 10,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,37</t>
+          <t>4,81; 7,5</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,09</t>
+          <t>0,98; 2,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,89</t>
+          <t>0,61; 2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,93</t>
+          <t>0,99; 2,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,42</t>
+          <t>6,3; 8,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 28,06</t>
+          <t>7,12; 47,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,12</t>
+          <t>5,27; 7,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,85</t>
+          <t>3,87; 5,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 16,13</t>
+          <t>3,84; 33,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 4,67</t>
+          <t>3,35; 4,8</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,57</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,32</t>
+          <t>0,47; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,44</t>
+          <t>1,16; 3,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,34</t>
+          <t>4,84; 7,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,79</t>
+          <t>5,81; 10,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,24</t>
+          <t>3,07; 6,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,56</t>
+          <t>2,98; 4,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,38</t>
+          <t>3,26; 5,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,47</t>
+          <t>2,39; 4,36</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,33</t>
+          <t>0,95; 1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,97</t>
+          <t>0,81; 2,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,71</t>
+          <t>1,29; 2,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,02</t>
+          <t>6,47; 8,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 20,52</t>
+          <t>7,91; 40,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,31</t>
+          <t>5,61; 7,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 4,94</t>
+          <t>3,99; 4,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 13,29</t>
+          <t>4,47; 26,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,47</t>
+          <t>3,66; 4,74</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tiroides</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5845</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10380</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41908</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12325</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>47753</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>952; 3378</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2594; 11955</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2409; 7594</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7716; 13402</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32491; 62744</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19632; 32444</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9691; 15969</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36477; 66513</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23527; 36710</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6313</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18332</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32551</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>295376</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56837</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38864</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>313707</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69496</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4436; 9452</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8609; 34626</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8569; 19066</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27215; 37530</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>98726; 659816</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45759; 68700</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34304; 44976</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>107283; 946311</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57912; 83130</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5016</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7959</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12063</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33631</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18517</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13038</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38648</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26475</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>438; 2117</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2160; 10044</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4398; 14214</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9398; 15351</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25703; 44284</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12780; 26138</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10309; 16617</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29459; 49564</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19021; 34687</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9233</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>29193</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25191</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54994</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>370915</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>100530</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64227</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>400108</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>125722</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6608; 12245</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16924; 46394</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18805; 33101</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48736; 61052</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>175831; 903748</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>87447; 115355</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57793; 72047</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>193044; 1126888</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>110496; 142846</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,84</t>
+          <t>1,51; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,24</t>
+          <t>1,06; 4,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,49</t>
+          <t>6,18; 10,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,88</t>
+          <t>8,11; 15,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,4</t>
+          <t>4,69; 7,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,67</t>
+          <t>5,94; 10,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,08</t>
+          <t>0,91; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,46</t>
+          <t>0,65; 2,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,69</t>
+          <t>5,69; 7,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 47,61</t>
+          <t>7,28; 53,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,08</t>
+          <t>3,3; 4,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 33,85</t>
+          <t>3,84; 33,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>0,35; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,18</t>
+          <t>0,47; 2,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,9</t>
+          <t>4,6; 7,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,0</t>
+          <t>5,76; 9,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,8</t>
+          <t>2,98; 4,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,49</t>
+          <t>3,31; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,77</t>
+          <t>1,0; 1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,21</t>
+          <t>0,82; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,1</t>
+          <t>5,96; 7,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 40,64</t>
+          <t>7,78; 39,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 4,98</t>
+          <t>3,71; 4,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 26,08</t>
+          <t>4,47; 24,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>9917</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12325</t>
+          <t>12248</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>952; 3378</t>
+          <t>1248; 4389</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2594; 11955</t>
+          <t>2419; 11281</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7716; 13402</t>
+          <t>7500; 12530</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32491; 62744</t>
+          <t>32059; 62268</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9691; 15969</t>
+          <t>9560; 15726</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36477; 66513</t>
+          <t>37050; 66218</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32551</t>
+          <t>29457</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38864</t>
+          <t>35434</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4436; 9452</t>
+          <t>4206; 8367</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8609; 34626</t>
+          <t>9160; 35106</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27215; 37530</t>
+          <t>25295; 34324</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98726; 659816</t>
+          <t>100904; 737091</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34304; 44976</t>
+          <t>29928; 40578</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>107283; 946311</t>
+          <t>107440; 928001</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>13551</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13038</t>
+          <t>15051</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>438; 2117</t>
+          <t>616; 3052</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2160; 10044</t>
+          <t>2178; 10162</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9398; 15351</t>
+          <t>10490; 17258</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25703; 44284</t>
+          <t>25490; 43586</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10309; 16617</t>
+          <t>12026; 18909</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29459; 49564</t>
+          <t>29911; 49770</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54994</t>
+          <t>52924</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>64227</t>
+          <t>62733</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6608; 12245</t>
+          <t>7210; 12753</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16924; 46394</t>
+          <t>17209; 44491</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48736; 61052</t>
+          <t>47350; 59647</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>175831; 903748</t>
+          <t>173095; 871300</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57793; 72047</t>
+          <t>56112; 69852</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>193044; 1126888</t>
+          <t>193270; 1056263</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,82%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,12%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8,16%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>10,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,02; 4,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,52</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,51; 5,32</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 4,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 3,52</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>7,24; 11,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 11,85</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>6,18; 10,32</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 15,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 11,85</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>5,37; 8,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 7,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4,69; 7,71</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 10,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 7,5</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,29%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,63%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,31%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,22%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,79; 2,49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 2,21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,91; 1,81</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 2,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 2,21</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>7,14; 9,86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 7,91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>5,69; 7,72</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 53,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 7,91</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,05; 5,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 4,8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>3,3; 4,48</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 33,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 4,8</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,85%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,94%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,28%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,61; 2,67</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 3,75</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,35; 1,74</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 3,75</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5,79; 9,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 6,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,6; 7,57</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 9,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 6,27</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,48; 5,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 4,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,98; 4,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 4,36</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,36%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,39%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,67%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,68%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,98; 2,17</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 2,27</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,77</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 2,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 2,27</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,41; 9,52</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 7,4</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5,96; 7,51</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 39,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 7,4</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,46; 5,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 4,74</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,71; 4,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 24,44</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 4,74</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,34 +1216,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>71</t>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>71</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>74</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4573</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2331</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5845</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4573</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>40101</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>9917</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>41908</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>25177</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>46391</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29750</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>12248</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>47753</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>29750</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2609; 12224</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2409; 7594</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1248; 4389</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2419; 11281</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2409; 7594</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>31334; 50827</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19632; 32444</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7500; 12530</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>32059; 62268</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>19632; 32444</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>36921; 58889</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23527; 36710</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>9560; 15726</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>37050; 66218</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>23527; 36710</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>216</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>138</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17978</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>5977</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>18332</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12659</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>105859</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56837</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>29457</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>295376</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>56837</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>123837</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69496</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>35434</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>313707</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>69496</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>10141; 32017</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8569; 19066</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>4206; 8367</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9160; 35106</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8569; 19066</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>90794; 125243</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45759; 68700</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>25295; 34324</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>100904; 737091</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>45759; 68700</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>103634; 145335</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57912; 83130</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>29928; 40578</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>107440; 928001</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>57912; 83130</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6663</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7959</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1500</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5016</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7959</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>37817</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18517</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13551</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>33631</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>18517</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>44480</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26475</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>15051</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>38648</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>26475</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3106; 13599</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4398; 14214</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>616; 3052</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2178; 10162</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4398; 14214</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>28693; 48700</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12780; 26138</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>10490; 17258</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>25490; 43586</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12780; 26138</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>35023; 56577</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19021; 34687</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>12026; 18909</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29911; 49770</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>19021; 34687</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>316</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>368</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>261</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>30932</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25191</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>9809</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29193</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>25191</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>183777</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>100530</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>52924</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>370915</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>100530</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>214709</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>125722</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>62733</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>400108</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>125722</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>20187; 44498</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18805; 33101</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>7210; 12753</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17209; 44491</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>18805; 33101</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>162920; 209244</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87447; 115355</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>47350; 59647</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>173095; 871300</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87447; 115355</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>189801; 241750</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110496; 142846</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>56112; 69852</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>193270; 1056263</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>110496; 142846</t>
         </is>
       </c>
     </row>
